--- a/biology/Botanique/Bulbophyllum_frostii/Bulbophyllum_frostii.xlsx
+++ b/biology/Botanique/Bulbophyllum_frostii/Bulbophyllum_frostii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bulbophyllum frostii est une espèce d'orchidées du genre Bulbophyllum originaire du Viêt Nam et de la province du Yunnan[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bulbophyllum frostii est une espèce d'orchidées du genre Bulbophyllum originaire du Viêt Nam et de la province du Yunnan.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce que l'on pourrait appeler miniature, formant de petit pseudobulbes espacés d'environ 3cm. Chacun d'eux porte une unique feuille apicale oblongue à elliptique. La hampe florale sort du rhizome et mesure à peine 2cm de long , et porte 1 à 4 fleurs parfumées faisant chacune environ 2.5cm[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce que l'on pourrait appeler miniature, formant de petit pseudobulbes espacés d'environ 3cm. Chacun d'eux porte une unique feuille apicale oblongue à elliptique. La hampe florale sort du rhizome et mesure à peine 2cm de long , et porte 1 à 4 fleurs parfumées faisant chacune environ 2.5cm.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire du Viêt Nam et de la province du Yunnan, on trouve cette espèce principalement entre 1400 et 1500m d'altitude[1]. Il pousse majoritairement dans des forêts humides et persistante sur des plateaux et des plaines[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire du Viêt Nam et de la province du Yunnan, on trouve cette espèce principalement entre 1400 et 1500m d'altitude. Il pousse majoritairement dans des forêts humides et persistante sur des plateaux et des plaines.
 </t>
         </is>
       </c>
